--- a/Software_Vergleich.xlsx
+++ b/Software_Vergleich.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>GitLab 8.2+</t>
   </si>
@@ -181,12 +180,6 @@
 https://www.perforce.com/perforce/doc.current/manuals/p4cmgr/</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 Native support of the files of any types and sizes</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Scalable for small-to medium-size projects (i.e 100's users and 100's repos) </t>
     </r>
@@ -225,6 +218,24 @@
   <si>
     <t>gitSwarm</t>
   </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>MPDL hosted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                             Native support of the files of any types and sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                            Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +283,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -315,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -404,17 +422,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -569,23 +576,91 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -600,7 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -614,223 +689,280 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,13 +1449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1297305</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,13 +1493,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1493,13 +1625,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1537,13 +1669,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1268643</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>172413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2404,6 +2536,270 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8341995" y="4922520"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1053465</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1312545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Grafik 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="9966960"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1221105</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Grafik 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5960745" y="9997440"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1327785</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1586865</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Grafik 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8368665" y="10012680"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1449705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Grafik 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020425" y="10012680"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1236345</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Grafik 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13855065" y="9997440"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>977265</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1236345</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Grafik 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18366105" y="9997440"/>
           <a:ext cx="259080" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2703,378 +3099,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.69921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="36.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="33.296875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="11.19921875" style="6"/>
+    <col min="1" max="2" width="32.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="36.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.09765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="I1" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="72"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
+    </row>
+    <row r="14" spans="1:10" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="E14" s="48"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="61"/>
+    </row>
+    <row r="21" spans="1:10" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+    </row>
+    <row r="22" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="61"/>
+    </row>
+    <row r="28" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="40" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="E29" s="57"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="72" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-    </row>
-    <row r="30" spans="1:7" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="1:10" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="58"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3152,6 +3656,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3247,12 +3752,19 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.67480314960629917" bottom="0.42440944881889758" header="0.2811023622047244" footer="0.34251968503937003"/>
   <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/Software_Vergleich.xlsx
+++ b/Software_Vergleich.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>GitLab 8.2+</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                            Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
+  </si>
+  <si>
+    <t>Notifivation system</t>
+  </si>
+  <si>
+    <t>Powerfolder</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -581,6 +587,15 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -675,7 +690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -857,6 +872,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -899,16 +917,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,21 +947,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,19 +974,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,13 +1479,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1297305</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1493,13 +1523,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1625,13 +1655,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1669,13 +1699,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1268643</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>172413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2549,13 +2579,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1053465</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1312545</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2593,13 +2623,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1221105</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2637,13 +2667,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1327785</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1586865</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2681,13 +2711,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1449705</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2725,13 +2755,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1236345</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2769,13 +2799,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>977265</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1236345</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3099,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3114,50 +3144,53 @@
     <col min="7" max="7" width="29.09765625" style="5" customWidth="1"/>
     <col min="8" max="8" width="28.19921875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="5"/>
+    <col min="10" max="10" width="34.19921875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="78" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="72"/>
+      <c r="J1" s="78" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="72"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3167,9 +3200,9 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,9 +3213,9 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,9 +3226,9 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,9 +3239,9 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3219,9 +3252,9 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,9 +3265,9 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,9 +3278,9 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3258,9 +3291,9 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,9 +3304,9 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,23 +3317,23 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="47"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -3314,10 +3347,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="77"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -3331,10 +3364,10 @@
         <v>56</v>
       </c>
       <c r="E15" s="49"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="77"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3348,12 +3381,12 @@
         <v>3</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="77"/>
-    </row>
-    <row r="17" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="69"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
@@ -3365,12 +3398,12 @@
         <v>10</v>
       </c>
       <c r="E17" s="49"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="77"/>
-    </row>
-    <row r="18" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="69"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -3378,12 +3411,13 @@
       <c r="C18" s="28"/>
       <c r="D18" s="24"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="69"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="79"/>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
@@ -3395,195 +3429,201 @@
         <v>12</v>
       </c>
       <c r="E19" s="60"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="77"/>
-    </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="69"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="79"/>
+    </row>
+    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:17" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="71"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="66"/>
       <c r="H26" s="66"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="62"/>
+    </row>
+    <row r="29" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="77"/>
-    </row>
-    <row r="29" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="79"/>
+    </row>
+    <row r="30" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="77"/>
-    </row>
-    <row r="30" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="E30" s="57"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="79"/>
+    </row>
+    <row r="31" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B31" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="57" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="77"/>
-    </row>
-    <row r="31" spans="1:10" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="79"/>
+    </row>
+    <row r="32" spans="1:17" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="79"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -3663,6 +3703,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3758,13 +3799,19 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.67480314960629917" bottom="0.42440944881889758" header="0.2811023622047244" footer="0.34251968503937003"/>
   <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/Software_Vergleich.xlsx
+++ b/Software_Vergleich.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>GitLab 8.2+</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Handhabung</t>
-  </si>
-  <si>
-    <t>Nutzerfreundlichkeit</t>
   </si>
   <si>
     <t>Aufwand Installation</t>
@@ -228,19 +225,31 @@
     <t>Dryad</t>
   </si>
   <si>
-    <t>MPDL hosted</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                             Native support of the files of any types and sizes</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                            Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
   </si>
   <si>
-    <t>Notifivation system</t>
-  </si>
-  <si>
     <t>Powerfolder</t>
+  </si>
+  <si>
+    <t>MPDL hosted (Trusted Data)</t>
+  </si>
+  <si>
+    <t>Notification system</t>
+  </si>
+  <si>
+    <t>C-Star</t>
+  </si>
+  <si>
+    <t>SparklShare</t>
+  </si>
+  <si>
+    <t>Webanwendung</t>
+  </si>
+  <si>
+    <t>Desktop Client</t>
   </si>
 </sst>
 </file>
@@ -339,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -428,6 +437,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -639,6 +659,30 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="mediumDashed">
         <color indexed="64"/>
@@ -678,6 +722,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -690,7 +769,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -701,7 +780,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -713,37 +792,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,241 +831,256 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1479,13 +1567,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1297305</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1523,13 +1611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1655,13 +1743,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1506855</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1699,13 +1787,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1268643</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>172413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2839,6 +2927,123 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>941070</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259080" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Grafik 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939790" y="4587240"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259080" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Grafik 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573780" y="4587240"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1312545</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259080" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Grafik 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="4596765"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3129,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3143,591 +3348,708 @@
     <col min="6" max="6" width="33.296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.09765625" style="5" customWidth="1"/>
     <col min="8" max="8" width="28.19921875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26" style="5" customWidth="1"/>
-    <col min="10" max="10" width="34.19921875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="11.19921875" style="5"/>
+    <col min="9" max="10" width="26" style="5" customWidth="1"/>
+    <col min="11" max="12" width="30.796875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="F1" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="L1" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="73"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:10" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="79"/>
-    </row>
-    <row r="15" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="44"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:12" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="79"/>
-    </row>
-    <row r="16" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="72"/>
+    </row>
+    <row r="16" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="46"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="45"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="79"/>
-      <c r="Q18" s="76"/>
-    </row>
-    <row r="19" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="72"/>
+      <c r="P18" s="69"/>
+    </row>
+    <row r="19" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="55"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="100"/>
+    </row>
+    <row r="21" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="62"/>
-    </row>
-    <row r="22" spans="1:17" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="101"/>
+    </row>
+    <row r="22" spans="1:16" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+    </row>
+    <row r="23" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="99"/>
+    </row>
+    <row r="24" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="57"/>
+    </row>
+    <row r="31" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="72"/>
+    </row>
+    <row r="33" spans="1:12" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="1:12" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="62"/>
-    </row>
-    <row r="29" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="79"/>
-    </row>
-    <row r="30" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="79"/>
-    </row>
-    <row r="31" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="79"/>
-    </row>
-    <row r="32" spans="1:17" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="82"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="74"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3805,11 +4127,23 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A22:D22"/>
   </mergeCells>

--- a/Software_Vergleich.xlsx
+++ b/Software_Vergleich.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>GitLab 8.2+</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Daten archivieren</t>
   </si>
   <si>
-    <t>Zugang zu Daten verschaffen </t>
+    <t>Zugang zu Daten verschaffen</t>
   </si>
   <si>
     <t>Zugang zu Daten verschaffen fein granular</t>
@@ -115,7 +114,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
@@ -126,26 +125,26 @@
     </r>
   </si>
   <si>
-    <t>                                                                                                                                                 Centralized / distributed </t>
-  </si>
-  <si>
-    <t>                                                                       Centralized / distributed</t>
+    <t>Centralized / distributed</t>
+  </si>
+  <si>
+    <t>Centralized / distributed</t>
   </si>
   <si>
     <t>BLOBs support</t>
   </si>
   <si>
-    <t>                                                                            Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
-  </si>
-  <si>
-    <t>                                                                             Native support of the files of any types and sizes</t>
+    <t>Git LFS support out of box since Nov.2015, not yet stable. Max size of file 16GB (http limitation)</t>
+  </si>
+  <si>
+    <t>Native support of the files of any types and sizes</t>
   </si>
   <si>
     <t>Scalability</t>
   </si>
   <si>
     <r>
-      <t>Scalable for small-to medium-size projects (i.e 100's users and 100's repos) </t>
+      <t>Scalable for small-to medium-size projects (i.e 100's users and 100's repos)</t>
     </r>
     <r>
       <rPr>
@@ -155,8 +154,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>https://forum.gitlab.com/t/scalability/754/2
-</t>
+      <t>https://forum.gitlab.com/t/scalability/754/2</t>
     </r>
   </si>
   <si>
@@ -248,23 +246,23 @@
     <t>Clustering</t>
   </si>
   <si>
-    <t>
-https://about.gitlab.com/high-availability/</t>
-  </si>
-  <si>
-    <t>
-https://www.perforce.com/perforce/doc.current/manuals/p4cmgr/</t>
+    <t>https://about.gitlab.com/high-availability/</t>
+  </si>
+  <si>
+    <t>https://www.perforce.com/perforce/doc.current/manuals/p4cmgr/</t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -273,33 +271,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -307,7 +281,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -315,7 +289,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -364,591 +338,579 @@
     </fill>
   </fills>
   <borders count="27">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="mediumDashed"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="mediumDashed"/>
-      <right style="mediumDashed"/>
-      <top style="thin"/>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="mediumDashed"/>
-      <right style="mediumDashed"/>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="mediumDashed"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="mediumDashed"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="mediumDashed"/>
-      <right style="mediumDashed"/>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="mediumDashed"/>
-      <top style="thin"/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="mediumDashed"/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="mediumDashed"/>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="mediumDashed"/>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="mediumDashed"/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="mediumDashed"/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="mediumDashed"/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 1" xfId="23" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1007,13 +969,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1029,11 +1004,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1060,17 +1035,17 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2505960</xdr:colOff>
+      <xdr:colOff>2490720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1097,17 +1072,17 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2505960</xdr:colOff>
+      <xdr:colOff>2490720</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1140,11 +1115,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="Grafik 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1177,11 +1152,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="Grafik 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1214,11 +1189,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="Grafik 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1251,11 +1226,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="Grafik 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1288,11 +1263,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1325,11 +1300,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="Grafik 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1362,11 +1337,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="Grafik 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1399,11 +1374,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="Grafik 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1425,22 +1400,22 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1065960</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>738000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1324800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>249840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Grafik 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="13" name="Grafik 14"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1462,22 +1437,22 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1275480</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>738000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1534320</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>249840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Grafik 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="14" name="Grafik 15"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1510,11 +1485,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Grafik 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="15" name="Grafik 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1547,11 +1522,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Grafik 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="16" name="Grafik 17"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1573,22 +1548,22 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1275480</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>692280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1534320</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>249840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="17" name="Grafik 18"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1610,22 +1585,22 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1085040</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1296000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="18" name="Grafik 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1658,11 +1633,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Grafik 22" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="19" name="Grafik 22"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1695,11 +1670,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Grafik 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="20" name="Grafik 23"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1732,11 +1707,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Grafik 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="21" name="Grafik 25"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1769,11 +1744,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Grafik 26" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <xdr:cNvPr id="22" name="Grafik 26"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1806,11 +1781,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <xdr:cNvPr id="23" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1843,11 +1818,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Grafik 28" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <xdr:cNvPr id="24" name="Grafik 28"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1880,11 +1855,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Grafik 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <xdr:cNvPr id="25" name="Grafik 29"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1917,11 +1892,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Grafik 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <xdr:cNvPr id="26" name="Grafik 31"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1954,11 +1929,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Grafik 32" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <xdr:cNvPr id="27" name="Grafik 32"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1991,11 +1966,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Grafik 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <xdr:cNvPr id="28" name="Grafik 33"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2028,11 +2003,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Grafik 34" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <xdr:cNvPr id="29" name="Grafik 34"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2065,11 +2040,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Grafik 35" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <xdr:cNvPr id="30" name="Grafik 35"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2102,11 +2077,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Grafik 36" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <xdr:cNvPr id="31" name="Grafik 36"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2139,11 +2114,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Grafik 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <xdr:cNvPr id="32" name="Grafik 37"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2176,11 +2151,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Grafik 38" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <xdr:cNvPr id="33" name="Grafik 38"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2213,11 +2188,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Grafik 39" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <xdr:cNvPr id="34" name="Grafik 39"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2250,11 +2225,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Grafik 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <xdr:cNvPr id="35" name="Grafik 40"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2276,22 +2251,22 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1081080</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1339920</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>402480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Grafik 41" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <xdr:cNvPr id="36" name="Grafik 41"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2313,22 +2288,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>989640</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>174240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1248480</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>429120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Grafik 42" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <xdr:cNvPr id="37" name="Grafik 42"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2350,22 +2325,22 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>189360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1614240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Grafik 43" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <xdr:cNvPr id="38" name="Grafik 43"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2387,22 +2362,22 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1217520</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>189360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1476360</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Grafik 44" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <xdr:cNvPr id="39" name="Grafik 44"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2424,22 +2399,22 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1263960</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>174240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1522800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>429120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Grafik 45" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <xdr:cNvPr id="40" name="Grafik 45"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2461,22 +2436,22 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1005120</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>174240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1263960</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>429120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Grafik 46" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <xdr:cNvPr id="41" name="Grafik 46"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2509,11 +2484,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <xdr:cNvPr id="42" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2546,11 +2521,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <xdr:cNvPr id="43" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2583,11 +2558,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
+        <xdr:cNvPr id="44" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2620,11 +2595,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
+        <xdr:cNvPr id="45" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2657,11 +2632,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
+        <xdr:cNvPr id="46" name="Image 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2694,11 +2669,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
+        <xdr:cNvPr id="47" name="Image 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2731,11 +2706,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
+        <xdr:cNvPr id="48" name="Image 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2768,11 +2743,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
+        <xdr:cNvPr id="49" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2805,11 +2780,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
+        <xdr:cNvPr id="50" name="Image 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2842,11 +2817,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
+        <xdr:cNvPr id="51" name="Image 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2879,11 +2854,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
+        <xdr:cNvPr id="52" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2916,11 +2891,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
+        <xdr:cNvPr id="53" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2953,11 +2928,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
+        <xdr:cNvPr id="54" name="Image 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2990,11 +2965,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Grafik 33" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
+        <xdr:cNvPr id="55" name="Grafik 33"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3027,11 +3002,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
+        <xdr:cNvPr id="56" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3064,11 +3039,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
+        <xdr:cNvPr id="57" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3101,11 +3076,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
+        <xdr:cNvPr id="58" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3138,11 +3113,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
+        <xdr:cNvPr id="59" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3175,11 +3150,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
+        <xdr:cNvPr id="60" name="Image 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3212,11 +3187,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
+        <xdr:cNvPr id="61" name="Image 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3249,11 +3224,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
+        <xdr:cNvPr id="62" name="Image 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3286,11 +3261,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
+        <xdr:cNvPr id="63" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3323,11 +3298,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
+        <xdr:cNvPr id="64" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3360,11 +3335,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
+        <xdr:cNvPr id="65" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3397,11 +3372,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
+        <xdr:cNvPr id="66" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3434,11 +3409,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Image 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
+        <xdr:cNvPr id="67" name="Image 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3471,11 +3446,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
+        <xdr:cNvPr id="68" name="Image 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3508,11 +3483,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
+        <xdr:cNvPr id="69" name="Image 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3545,11 +3520,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId69"/>
+        <xdr:cNvPr id="70" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3582,11 +3557,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId70"/>
+        <xdr:cNvPr id="71" name="Image 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3619,11 +3594,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
+        <xdr:cNvPr id="72" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3656,11 +3631,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId72"/>
+        <xdr:cNvPr id="73" name="Image 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3693,11 +3668,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Image 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId73"/>
+        <xdr:cNvPr id="74" name="Image 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3730,11 +3705,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
+        <xdr:cNvPr id="75" name="Image 14"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3767,11 +3742,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Image 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
+        <xdr:cNvPr id="76" name="Image 15"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3804,11 +3779,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
+        <xdr:cNvPr id="77" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3841,11 +3816,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
+        <xdr:cNvPr id="78" name="Image 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3878,11 +3853,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId78"/>
+        <xdr:cNvPr id="79" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3915,11 +3890,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Grafik 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId79"/>
+        <xdr:cNvPr id="80" name="Grafik 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3952,11 +3927,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId80"/>
+        <xdr:cNvPr id="81" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3989,11 +3964,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId81"/>
+        <xdr:cNvPr id="82" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4026,11 +4001,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId82"/>
+        <xdr:cNvPr id="83" name="Image 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4063,11 +4038,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId83"/>
+        <xdr:cNvPr id="84" name="Image 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4100,11 +4075,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Grafik 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId84"/>
+        <xdr:cNvPr id="85" name="Grafik 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4137,11 +4112,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Image 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId85"/>
+        <xdr:cNvPr id="86" name="Image 17"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4174,11 +4149,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Image 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId86"/>
+        <xdr:cNvPr id="87" name="Image 18"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4211,11 +4186,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Image 19" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId87"/>
+        <xdr:cNvPr id="88" name="Image 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4248,11 +4223,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId88"/>
+        <xdr:cNvPr id="89" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4285,11 +4260,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Grafik 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId89"/>
+        <xdr:cNvPr id="90" name="Grafik 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4322,11 +4297,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Grafik 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId90"/>
+        <xdr:cNvPr id="91" name="Grafik 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4359,11 +4334,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId91"/>
+        <xdr:cNvPr id="92" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4396,11 +4371,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Grafik 27" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId92"/>
+        <xdr:cNvPr id="93" name="Grafik 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4433,11 +4408,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Image 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId93"/>
+        <xdr:cNvPr id="94" name="Image 20"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4470,11 +4445,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Grafik 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId94"/>
+        <xdr:cNvPr id="95" name="Grafik 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4507,11 +4482,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Grafik 40" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId95"/>
+        <xdr:cNvPr id="96" name="Grafik 40"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4532,648 +4507,944 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="32.7023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.7953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="36.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.3023255813954"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1023255813953"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.1953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="34.2046511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.6372093023256"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.953488372093"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.2"/>
+    <col min="1" max="2" width="32.69921875" style="5"/>
+    <col min="3" max="3" width="26.796875" style="5"/>
+    <col min="4" max="5" width="36.5" style="5"/>
+    <col min="6" max="6" width="33.296875" style="5"/>
+    <col min="7" max="7" width="29.09765625" style="5"/>
+    <col min="8" max="8" width="28.19921875" style="5"/>
+    <col min="9" max="9" width="26" style="5"/>
+    <col min="10" max="10" width="34.19921875" style="5"/>
+    <col min="11" max="11" width="23.59765625" style="5"/>
+    <col min="12" max="12" width="22" style="5"/>
+    <col min="13" max="1023" width="11.19921875" style="5"/>
+    <col min="1024" max="1025" width="11.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="0"/>
+      <c r="P1"/>
     </row>
-    <row r="2" customFormat="false" ht="45.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="P2" s="0"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="P2"/>
     </row>
-    <row r="3" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="P3" s="0"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="P3"/>
     </row>
-    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="P4" s="0"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="P4"/>
     </row>
-    <row r="5" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="P5" s="0"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="P5"/>
     </row>
-    <row r="6" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="P6" s="0"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="P6"/>
     </row>
-    <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="0"/>
+      <c r="P7"/>
     </row>
-    <row r="8" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="0"/>
+      <c r="P8"/>
     </row>
-    <row r="9" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="0"/>
+      <c r="P9"/>
     </row>
-    <row r="10" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="0"/>
+      <c r="P10"/>
     </row>
-    <row r="11" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="P11" s="0"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="P11"/>
     </row>
-    <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="P12" s="0"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="P12"/>
     </row>
-    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="P13" s="0"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="P13"/>
     </row>
-    <row r="14" customFormat="false" ht="52.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:16" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="P14" s="0"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="P14"/>
     </row>
-    <row r="15" customFormat="false" ht="77.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:16" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="P15" s="0"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="P15"/>
     </row>
-    <row r="16" customFormat="false" ht="78.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="P16" s="0"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="P16"/>
     </row>
-    <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="P17" s="0"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="P17"/>
     </row>
-    <row r="18" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="P18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="P18" s="39"/>
     </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+    <row r="22" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
+    <row r="23" spans="1:16" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="51" t="s">
+    <row r="24" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="57" t="s">
+    <row r="25" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="57" t="s">
+    <row r="26" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="57" t="s">
+    <row r="27" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B27" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="64" t="s">
+    <row r="28" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B28" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70" t="s">
+    <row r="29" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
+    <row r="30" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+    <row r="31" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="30" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="58.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="75" t="s">
+    <row r="32" spans="1:16" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="31" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="63.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="77" t="s">
+    <row r="33" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B33" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.675" bottom="0.424305555555556" header="0.28125" footer="0.342361111111111"/>
-  <pageSetup paperSize="8" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.67500000000000004" bottom="0.42430555555555599" header="0.28125" footer="0.34236111111111101"/>
+  <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;CGitLab 8.2+ vs. Helix GitSwarm 2015.2</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -5182,26 +5453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6651162790698"/>
+    <col min="1" max="1" width="8.59765625"/>
+    <col min="2" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.675" bottom="0.424305555555556" header="0.28125" footer="0.342361111111111"/>
-  <pageSetup paperSize="77" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.67500000000000004" bottom="0.42430555555555599" header="0.28125" footer="0.34236111111111101"/>
+  <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;CGitLab 8.2+ vs. Helix GitSwarm 2015.2</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -5209,26 +5474,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6651162790698"/>
+    <col min="1" max="1" width="8.59765625"/>
+    <col min="2" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.675" bottom="0.424305555555556" header="0.28125" footer="0.342361111111111"/>
-  <pageSetup paperSize="77" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.67500000000000004" bottom="0.42430555555555599" header="0.28125" footer="0.34236111111111101"/>
+  <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;CGitLab 8.2+ vs. Helix GitSwarm 2015.2</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
